--- a/Crude RBO.xlsx
+++ b/Crude RBO.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylesmac/PycharmProjects/NIR_ROB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88B0D8-851E-2E45-BA77-48FBB1BDF3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE16BFE-378C-AD42-9D3F-EA745558A625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{1709D1E8-CE9E-4131-AC46-73262A0D26E6}"/>
+    <workbookView xWindow="2100" yWindow="2420" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{1709D1E8-CE9E-4131-AC46-73262A0D26E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="coeffs" sheetId="1" r:id="rId1"/>
-    <sheet name="ref" sheetId="2" r:id="rId2"/>
+    <sheet name="OZ_Regression coefficients" sheetId="1" r:id="rId1"/>
+    <sheet name="Average reference spectrum" sheetId="2" r:id="rId2"/>
+    <sheet name="OZ_Regression coefficients SG" sheetId="3" r:id="rId3"/>
+    <sheet name="AV_regressioncoeff_SNV_SG" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Coefficient</t>
   </si>
@@ -44,6 +46,12 @@
   </si>
   <si>
     <t>Intensity</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Dark</t>
   </si>
 </sst>
 </file>
@@ -397,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB3138A-7185-44A6-A08F-11AE6A2A0151}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A3:A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2831,2425 +2839,8139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA1BA7-43D4-44CD-B7AD-4D34628DBEF1}">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1350</v>
+      </c>
+      <c r="B2">
+        <v>26210.645833333339</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1351</v>
+      </c>
+      <c r="B3">
+        <v>26114.204166666666</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1352</v>
+      </c>
+      <c r="B4">
+        <v>26012.891666666663</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1353</v>
+      </c>
+      <c r="B5">
+        <v>25910.645833333332</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1354</v>
+      </c>
+      <c r="B6">
+        <v>25804.108333333334</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1355</v>
+      </c>
+      <c r="B7">
+        <v>25695.483333333334</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1356</v>
+      </c>
+      <c r="B8">
+        <v>25585.537499999995</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1357</v>
+      </c>
+      <c r="B9">
+        <v>25471.949999999997</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1358</v>
+      </c>
+      <c r="B10">
+        <v>25356.433333333334</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1359</v>
+      </c>
+      <c r="B11">
+        <v>25238.770833333339</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1360</v>
+      </c>
+      <c r="B12">
+        <v>25119.625</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1361</v>
+      </c>
+      <c r="B13">
+        <v>24996.616666666658</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1362</v>
+      </c>
+      <c r="B14">
+        <v>24873.308333333331</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1363</v>
+      </c>
+      <c r="B15">
+        <v>24746.366666666672</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1364</v>
+      </c>
+      <c r="B16">
+        <v>24615.820833333331</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1365</v>
+      </c>
+      <c r="B17">
+        <v>24482.445833333331</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1366</v>
+      </c>
+      <c r="B18">
+        <v>24344.025000000005</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1367</v>
+      </c>
+      <c r="B19">
+        <v>24201.212500000005</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1368</v>
+      </c>
+      <c r="B20">
+        <v>24054.804166666672</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1369</v>
+      </c>
+      <c r="B21">
+        <v>23900.470833333329</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1370</v>
+      </c>
+      <c r="B22">
+        <v>23740.320833333335</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1371</v>
+      </c>
+      <c r="B23">
+        <v>23574.875</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1372</v>
+      </c>
+      <c r="B24">
+        <v>23403.279166666671</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1373</v>
+      </c>
+      <c r="B25">
+        <v>23225.849999999995</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1374</v>
+      </c>
+      <c r="B26">
+        <v>23044.266666666666</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1375</v>
+      </c>
+      <c r="B27">
+        <v>22857.050000000003</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1376</v>
+      </c>
+      <c r="B28">
+        <v>22670.162500000006</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1377</v>
+      </c>
+      <c r="B29">
+        <v>22482.229166666668</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1378</v>
+      </c>
+      <c r="B30">
+        <v>22297.945833333331</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1379</v>
+      </c>
+      <c r="B31">
+        <v>22118.491666666669</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1380</v>
+      </c>
+      <c r="B32">
+        <v>21948.291666666668</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1381</v>
+      </c>
+      <c r="B33">
+        <v>21788.112499999999</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1382</v>
+      </c>
+      <c r="B34">
+        <v>21640.712500000001</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1383</v>
+      </c>
+      <c r="B35">
+        <v>21505.875000000004</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1384</v>
+      </c>
+      <c r="B36">
+        <v>21385.729166666672</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1385</v>
+      </c>
+      <c r="B37">
+        <v>21279.05</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1386</v>
+      </c>
+      <c r="B38">
+        <v>21184.366666666672</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1387</v>
+      </c>
+      <c r="B39">
+        <v>21102.412500000002</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1388</v>
+      </c>
+      <c r="B40">
+        <v>21031.704166666666</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1389</v>
+      </c>
+      <c r="B41">
+        <v>20969.704166666663</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1390</v>
+      </c>
+      <c r="B42">
+        <v>20917.462499999998</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1391</v>
+      </c>
+      <c r="B43">
+        <v>20871.616666666669</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1392</v>
+      </c>
+      <c r="B44">
+        <v>20831.891666666666</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1393</v>
+      </c>
+      <c r="B45">
+        <v>20797.575000000001</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1394</v>
+      </c>
+      <c r="B46">
+        <v>20767.566666666666</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1395</v>
+      </c>
+      <c r="B47">
+        <v>20741.624999999996</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1396</v>
+      </c>
+      <c r="B48">
+        <v>20718.308333333334</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1397</v>
+      </c>
+      <c r="B49">
+        <v>20697.791666666668</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1398</v>
+      </c>
+      <c r="B50">
+        <v>20679.174999999999</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1399</v>
+      </c>
+      <c r="B51">
+        <v>20661.695833333335</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1400</v>
+      </c>
+      <c r="B52">
+        <v>20645.516666666663</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1401</v>
+      </c>
+      <c r="B53">
+        <v>20629.654166666671</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1402</v>
+      </c>
+      <c r="B54">
+        <v>20613.779166666671</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1403</v>
+      </c>
+      <c r="B55">
+        <v>20598.054166666661</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1404</v>
+      </c>
+      <c r="B56">
+        <v>20581.625000000004</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1405</v>
+      </c>
+      <c r="B57">
+        <v>20564.841666666667</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1406</v>
+      </c>
+      <c r="B58">
+        <v>20547.316666666669</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1407</v>
+      </c>
+      <c r="B59">
+        <v>20529.579166666666</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1408</v>
+      </c>
+      <c r="B60">
+        <v>20511.012499999997</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1409</v>
+      </c>
+      <c r="B61">
+        <v>20491.812500000004</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1410</v>
+      </c>
+      <c r="B62">
+        <v>20472.000000000004</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1411</v>
+      </c>
+      <c r="B63">
+        <v>20451.908333333329</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1412</v>
+      </c>
+      <c r="B64">
+        <v>20431.387500000001</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1413</v>
+      </c>
+      <c r="B65">
+        <v>20409.691666666666</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1414</v>
+      </c>
+      <c r="B66">
+        <v>20387.766666666666</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1415</v>
+      </c>
+      <c r="B67">
+        <v>20365.020833333332</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1416</v>
+      </c>
+      <c r="B68">
+        <v>20341.949999999993</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1417</v>
+      </c>
+      <c r="B69">
+        <v>20317.912499999999</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1418</v>
+      </c>
+      <c r="B70">
+        <v>20293.224999999995</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1419</v>
+      </c>
+      <c r="B71">
+        <v>20269.008333333335</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1420</v>
+      </c>
+      <c r="B72">
+        <v>20244.308333333331</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1421</v>
+      </c>
+      <c r="B73">
+        <v>20219.312499999996</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1422</v>
+      </c>
+      <c r="B74">
+        <v>20194.120833333331</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1423</v>
+      </c>
+      <c r="B75">
+        <v>20169.083333333336</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1424</v>
+      </c>
+      <c r="B76">
+        <v>20144.091666666671</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1425</v>
+      </c>
+      <c r="B77">
+        <v>20119.516666666663</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1426</v>
+      </c>
+      <c r="B78">
+        <v>20095.045833333337</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1427</v>
+      </c>
+      <c r="B79">
+        <v>20071.554166666665</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1428</v>
+      </c>
+      <c r="B80">
+        <v>20049.016666666666</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1429</v>
+      </c>
+      <c r="B81">
+        <v>20026.8125</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1430</v>
+      </c>
+      <c r="B82">
+        <v>20005.329166666666</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1431</v>
+      </c>
+      <c r="B83">
+        <v>19984.066666666669</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1432</v>
+      </c>
+      <c r="B84">
+        <v>19962.941666666666</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1433</v>
+      </c>
+      <c r="B85">
+        <v>19941.825000000001</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1434</v>
+      </c>
+      <c r="B86">
+        <v>19920.820833333335</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1435</v>
+      </c>
+      <c r="B87">
+        <v>19899.766666666663</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1436</v>
+      </c>
+      <c r="B88">
+        <v>19878.666666666668</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1437</v>
+      </c>
+      <c r="B89">
+        <v>19857.108333333334</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1438</v>
+      </c>
+      <c r="B90">
+        <v>19836.158333333336</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1439</v>
+      </c>
+      <c r="B91">
+        <v>19815.670833333334</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1440</v>
+      </c>
+      <c r="B92">
+        <v>19795.058333333334</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1441</v>
+      </c>
+      <c r="B93">
+        <v>19774.608333333334</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1442</v>
+      </c>
+      <c r="B94">
+        <v>19754.300000000003</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1443</v>
+      </c>
+      <c r="B95">
+        <v>19733.749999999996</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1444</v>
+      </c>
+      <c r="B96">
+        <v>19712.958333333339</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1445</v>
+      </c>
+      <c r="B97">
+        <v>19692.612499999996</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1446</v>
+      </c>
+      <c r="B98">
+        <v>19672.191666666666</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1447</v>
+      </c>
+      <c r="B99">
+        <v>19652.012500000001</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1448</v>
+      </c>
+      <c r="B100">
+        <v>19632.20416666667</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1449</v>
+      </c>
+      <c r="B101">
+        <v>19612.354166666668</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1450</v>
+      </c>
+      <c r="B102">
+        <v>19593.324999999997</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1451</v>
+      </c>
+      <c r="B103">
+        <v>19574.941666666669</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1452</v>
+      </c>
+      <c r="B104">
+        <v>19556.720833333329</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1453</v>
+      </c>
+      <c r="B105">
+        <v>19539.708333333332</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1454</v>
+      </c>
+      <c r="B106">
+        <v>19523.387500000001</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1455</v>
+      </c>
+      <c r="B107">
+        <v>19507.725000000002</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1456</v>
+      </c>
+      <c r="B108">
+        <v>19492.466666666664</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1457</v>
+      </c>
+      <c r="B109">
+        <v>19477.400000000001</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1458</v>
+      </c>
+      <c r="B110">
+        <v>19462.604166666664</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1459</v>
+      </c>
+      <c r="B111">
+        <v>19447.895833333332</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1460</v>
+      </c>
+      <c r="B112">
+        <v>19433.112499999999</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1461</v>
+      </c>
+      <c r="B113">
+        <v>19418.179166666665</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1462</v>
+      </c>
+      <c r="B114">
+        <v>19403.295833333334</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1463</v>
+      </c>
+      <c r="B115">
+        <v>19388.758333333331</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1464</v>
+      </c>
+      <c r="B116">
+        <v>19373.612499999996</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1465</v>
+      </c>
+      <c r="B117">
+        <v>19359.437499999996</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1466</v>
+      </c>
+      <c r="B118">
+        <v>19345.183333333342</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1467</v>
+      </c>
+      <c r="B119">
+        <v>19331.316666666666</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1468</v>
+      </c>
+      <c r="B120">
+        <v>19318.241666666669</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1469</v>
+      </c>
+      <c r="B121">
+        <v>19304.912499999999</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1470</v>
+      </c>
+      <c r="B122">
+        <v>19292.208333333332</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1471</v>
+      </c>
+      <c r="B123">
+        <v>19279.633333333335</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1472</v>
+      </c>
+      <c r="B124">
+        <v>19267.650000000001</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1473</v>
+      </c>
+      <c r="B125">
+        <v>19256.116666666665</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1474</v>
+      </c>
+      <c r="B126">
+        <v>19245.412500000002</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1475</v>
+      </c>
+      <c r="B127">
+        <v>19235.454166666666</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1476</v>
+      </c>
+      <c r="B128">
+        <v>19226.541666666668</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1477</v>
+      </c>
+      <c r="B129">
+        <v>19218.158333333329</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1478</v>
+      </c>
+      <c r="B130">
+        <v>19210.566666666669</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1479</v>
+      </c>
+      <c r="B131">
+        <v>19203.366666666665</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1480</v>
+      </c>
+      <c r="B132">
+        <v>19196.612499999996</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1481</v>
+      </c>
+      <c r="B133">
+        <v>19190.266666666666</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1482</v>
+      </c>
+      <c r="B134">
+        <v>19184.291666666664</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1483</v>
+      </c>
+      <c r="B135">
+        <v>19178.699999999997</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1484</v>
+      </c>
+      <c r="B136">
+        <v>19173.583333333332</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1485</v>
+      </c>
+      <c r="B137">
+        <v>19169.179166666669</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1486</v>
+      </c>
+      <c r="B138">
+        <v>19165.637500000001</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1487</v>
+      </c>
+      <c r="B139">
+        <v>19161.987499999999</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1488</v>
+      </c>
+      <c r="B140">
+        <v>19158.916666666668</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1489</v>
+      </c>
+      <c r="B141">
+        <v>19156.512500000001</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1490</v>
+      </c>
+      <c r="B142">
+        <v>19154.112499999999</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1491</v>
+      </c>
+      <c r="B143">
+        <v>19152.233333333334</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1492</v>
+      </c>
+      <c r="B144">
+        <v>19150.283333333333</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1493</v>
+      </c>
+      <c r="B145">
+        <v>19148.283333333333</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1494</v>
+      </c>
+      <c r="B146">
+        <v>19146.733333333334</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1495</v>
+      </c>
+      <c r="B147">
+        <v>19145.441666666669</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1496</v>
+      </c>
+      <c r="B148">
+        <v>19144.883333333335</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1497</v>
+      </c>
+      <c r="B149">
+        <v>19144.520833333332</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1498</v>
+      </c>
+      <c r="B150">
+        <v>19145.391666666666</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1499</v>
+      </c>
+      <c r="B151">
+        <v>19146.520833333336</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1500</v>
+      </c>
+      <c r="B152">
+        <v>19147.637500000001</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1501</v>
+      </c>
+      <c r="B153">
+        <v>19148.899999999998</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1502</v>
+      </c>
+      <c r="B154">
+        <v>19150.741666666665</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1503</v>
+      </c>
+      <c r="B155">
+        <v>19152.679166666665</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1504</v>
+      </c>
+      <c r="B156">
+        <v>19154.491666666661</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1505</v>
+      </c>
+      <c r="B157">
+        <v>19156.625000000004</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1506</v>
+      </c>
+      <c r="B158">
+        <v>19159.020833333332</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1507</v>
+      </c>
+      <c r="B159">
+        <v>19162.079166666666</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1508</v>
+      </c>
+      <c r="B160">
+        <v>19165.654166666664</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1509</v>
+      </c>
+      <c r="B161">
+        <v>19169.862499999996</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1510</v>
+      </c>
+      <c r="B162">
+        <v>19175.020833333332</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1511</v>
+      </c>
+      <c r="B163">
+        <v>19180.404166666671</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1512</v>
+      </c>
+      <c r="B164">
+        <v>19185.624999999996</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1513</v>
+      </c>
+      <c r="B165">
+        <v>19192.104166666668</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1514</v>
+      </c>
+      <c r="B166">
+        <v>19198.300000000003</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1515</v>
+      </c>
+      <c r="B167">
+        <v>19205.270833333332</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1516</v>
+      </c>
+      <c r="B168">
+        <v>19212.55</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1517</v>
+      </c>
+      <c r="B169">
+        <v>19220.712500000001</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1518</v>
+      </c>
+      <c r="B170">
+        <v>19229.220833333333</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1519</v>
+      </c>
+      <c r="B171">
+        <v>19238.775000000001</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1520</v>
+      </c>
+      <c r="B172">
+        <v>19248.441666666662</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1521</v>
+      </c>
+      <c r="B173">
+        <v>19258.758333333335</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1522</v>
+      </c>
+      <c r="B174">
+        <v>19269.508333333335</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1523</v>
+      </c>
+      <c r="B175">
+        <v>19280.470833333333</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1524</v>
+      </c>
+      <c r="B176">
+        <v>19291.229166666668</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1525</v>
+      </c>
+      <c r="B177">
+        <v>19302.395833333336</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1526</v>
+      </c>
+      <c r="B178">
+        <v>19313.516666666666</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1527</v>
+      </c>
+      <c r="B179">
+        <v>19324.758333333335</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1528</v>
+      </c>
+      <c r="B180">
+        <v>19336.279166666664</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>1529</v>
+      </c>
+      <c r="B181">
+        <v>19348.733333333334</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1530</v>
+      </c>
+      <c r="B182">
+        <v>19361.870833333331</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1531</v>
+      </c>
+      <c r="B183">
+        <v>19375.762500000001</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1532</v>
+      </c>
+      <c r="B184">
+        <v>19390.370833333331</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1533</v>
+      </c>
+      <c r="B185">
+        <v>19405.000000000004</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>1534</v>
+      </c>
+      <c r="B186">
+        <v>19420.341666666667</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1535</v>
+      </c>
+      <c r="B187">
+        <v>19436.020833333339</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1536</v>
+      </c>
+      <c r="B188">
+        <v>19452.120833333334</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>1537</v>
+      </c>
+      <c r="B189">
+        <v>19468.808333333334</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1538</v>
+      </c>
+      <c r="B190">
+        <v>19486.362500000007</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>1539</v>
+      </c>
+      <c r="B191">
+        <v>19504.516666666666</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1540</v>
+      </c>
+      <c r="B192">
+        <v>19522.679166666669</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1541</v>
+      </c>
+      <c r="B193">
+        <v>19541.683333333334</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1542</v>
+      </c>
+      <c r="B194">
+        <v>19561.366666666665</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1543</v>
+      </c>
+      <c r="B195">
+        <v>19581.079166666666</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1544</v>
+      </c>
+      <c r="B196">
+        <v>19601.037500000002</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>1545</v>
+      </c>
+      <c r="B197">
+        <v>19621.495833333331</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>1546</v>
+      </c>
+      <c r="B198">
+        <v>19641.304166666665</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1547</v>
+      </c>
+      <c r="B199">
+        <v>19660.991666666669</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1548</v>
+      </c>
+      <c r="B200">
+        <v>19680.850000000002</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>1549</v>
+      </c>
+      <c r="B201">
+        <v>19700.937500000004</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1550</v>
+      </c>
+      <c r="B202">
+        <v>19721.829166666666</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1551</v>
+      </c>
+      <c r="B203">
+        <v>19743.633333333328</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>1552</v>
+      </c>
+      <c r="B204">
+        <v>19766.2</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1553</v>
+      </c>
+      <c r="B205">
+        <v>19789.879166666669</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1554</v>
+      </c>
+      <c r="B206">
+        <v>19813.912500000002</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1555</v>
+      </c>
+      <c r="B207">
+        <v>19838.158333333333</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1556</v>
+      </c>
+      <c r="B208">
+        <v>19863.112499999999</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1557</v>
+      </c>
+      <c r="B209">
+        <v>19888.204166666666</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1558</v>
+      </c>
+      <c r="B210">
+        <v>19914.070833333335</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1559</v>
+      </c>
+      <c r="B211">
+        <v>19939.483333333334</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1560</v>
+      </c>
+      <c r="B212">
+        <v>19965.637500000001</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1561</v>
+      </c>
+      <c r="B213">
+        <v>19992.045833333334</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1562</v>
+      </c>
+      <c r="B214">
+        <v>20018.341666666671</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1563</v>
+      </c>
+      <c r="B215">
+        <v>20044.612499999999</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1564</v>
+      </c>
+      <c r="B216">
+        <v>20070.504166666669</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1565</v>
+      </c>
+      <c r="B217">
+        <v>20096.154166666664</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1566</v>
+      </c>
+      <c r="B218">
+        <v>20122.650000000001</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1567</v>
+      </c>
+      <c r="B219">
+        <v>20149.641666666666</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1568</v>
+      </c>
+      <c r="B220">
+        <v>20178.033333333333</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1569</v>
+      </c>
+      <c r="B221">
+        <v>20206.641666666666</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1570</v>
+      </c>
+      <c r="B222">
+        <v>20237.237499999999</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1571</v>
+      </c>
+      <c r="B223">
+        <v>20268.583333333332</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1572</v>
+      </c>
+      <c r="B224">
+        <v>20300.987499999999</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>1573</v>
+      </c>
+      <c r="B225">
+        <v>20334.408333333333</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1574</v>
+      </c>
+      <c r="B226">
+        <v>20368.445833333331</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1575</v>
+      </c>
+      <c r="B227">
+        <v>20402.291666666668</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1576</v>
+      </c>
+      <c r="B228">
+        <v>20436.187499999996</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1577</v>
+      </c>
+      <c r="B229">
+        <v>20469.520833333332</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1578</v>
+      </c>
+      <c r="B230">
+        <v>20503.091666666667</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>1579</v>
+      </c>
+      <c r="B231">
+        <v>20536.174999999999</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1580</v>
+      </c>
+      <c r="B232">
+        <v>20568.737499999999</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1581</v>
+      </c>
+      <c r="B233">
+        <v>20601.195833333335</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1582</v>
+      </c>
+      <c r="B234">
+        <v>20634.129166666662</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1583</v>
+      </c>
+      <c r="B235">
+        <v>20667.2</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1584</v>
+      </c>
+      <c r="B236">
+        <v>20699.933333333331</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1585</v>
+      </c>
+      <c r="B237">
+        <v>20732.816666666666</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1586</v>
+      </c>
+      <c r="B238">
+        <v>20766.941666666669</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1587</v>
+      </c>
+      <c r="B239">
+        <v>20801.320833333335</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1588</v>
+      </c>
+      <c r="B240">
+        <v>20836.533333333333</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1589</v>
+      </c>
+      <c r="B241">
+        <v>20872.733333333334</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1590</v>
+      </c>
+      <c r="B242">
+        <v>20909.604166666668</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1591</v>
+      </c>
+      <c r="B243">
+        <v>20947.387500000001</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1592</v>
+      </c>
+      <c r="B244">
+        <v>20986.04583333333</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1593</v>
+      </c>
+      <c r="B245">
+        <v>21025.591666666671</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1594</v>
+      </c>
+      <c r="B246">
+        <v>21065.316666666669</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1595</v>
+      </c>
+      <c r="B247">
+        <v>21105.629166666669</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1596</v>
+      </c>
+      <c r="B248">
+        <v>21145.991666666661</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1597</v>
+      </c>
+      <c r="B249">
+        <v>21186.512500000001</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1598</v>
+      </c>
+      <c r="B250">
+        <v>21226.758333333335</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1599</v>
+      </c>
+      <c r="B251">
+        <v>21267.541666666668</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1600</v>
+      </c>
+      <c r="B252">
+        <v>21307.991666666672</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1601</v>
+      </c>
+      <c r="B253">
+        <v>21348.779166666667</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>1602</v>
+      </c>
+      <c r="B254">
+        <v>21389.483333333334</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1603</v>
+      </c>
+      <c r="B255">
+        <v>21431.070833333335</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>1604</v>
+      </c>
+      <c r="B256">
+        <v>21473.079166666659</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1605</v>
+      </c>
+      <c r="B257">
+        <v>21515.191666666666</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1606</v>
+      </c>
+      <c r="B258">
+        <v>21558.274999999998</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>1607</v>
+      </c>
+      <c r="B259">
+        <v>21601.441666666666</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1608</v>
+      </c>
+      <c r="B260">
+        <v>21645.570833333335</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>1609</v>
+      </c>
+      <c r="B261">
+        <v>21689.649999999998</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>1610</v>
+      </c>
+      <c r="B262">
+        <v>21734.333333333332</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1611</v>
+      </c>
+      <c r="B263">
+        <v>21779.17083333333</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1612</v>
+      </c>
+      <c r="B264">
+        <v>21824.195833333335</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>1613</v>
+      </c>
+      <c r="B265">
+        <v>21868.874999999996</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1614</v>
+      </c>
+      <c r="B266">
+        <v>21913.595833333336</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>1615</v>
+      </c>
+      <c r="B267">
+        <v>21958.104166666672</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>1616</v>
+      </c>
+      <c r="B268">
+        <v>22002.274999999994</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>1617</v>
+      </c>
+      <c r="B269">
+        <v>22046.608333333334</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>1618</v>
+      </c>
+      <c r="B270">
+        <v>22090.662500000002</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>1619</v>
+      </c>
+      <c r="B271">
+        <v>22135.104166666668</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>1620</v>
+      </c>
+      <c r="B272">
+        <v>22179.879166666662</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>1621</v>
+      </c>
+      <c r="B273">
+        <v>22225.008333333335</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1622</v>
+      </c>
+      <c r="B274">
+        <v>22271.366666666665</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1623</v>
+      </c>
+      <c r="B275">
+        <v>22318.1875</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>1624</v>
+      </c>
+      <c r="B276">
+        <v>22365.316666666666</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>1625</v>
+      </c>
+      <c r="B277">
+        <v>22413.216666666664</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>1626</v>
+      </c>
+      <c r="B278">
+        <v>22460.975000000002</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>1627</v>
+      </c>
+      <c r="B279">
+        <v>22509</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>1628</v>
+      </c>
+      <c r="B280">
+        <v>22557.383333333331</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>1629</v>
+      </c>
+      <c r="B281">
+        <v>22604.795833333337</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1630</v>
+      </c>
+      <c r="B282">
+        <v>22652.875</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>1631</v>
+      </c>
+      <c r="B283">
+        <v>22700.816666666662</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>1632</v>
+      </c>
+      <c r="B284">
+        <v>22748.604166666668</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>1633</v>
+      </c>
+      <c r="B285">
+        <v>22796.570833333331</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>1634</v>
+      </c>
+      <c r="B286">
+        <v>22844.916666666668</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>1635</v>
+      </c>
+      <c r="B287">
+        <v>22893.295833333337</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>1636</v>
+      </c>
+      <c r="B288">
+        <v>22941.833333333339</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>1637</v>
+      </c>
+      <c r="B289">
+        <v>22990.550000000003</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1638</v>
+      </c>
+      <c r="B290">
+        <v>23039.495833333334</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1639</v>
+      </c>
+      <c r="B291">
+        <v>23088.383333333331</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1640</v>
+      </c>
+      <c r="B292">
+        <v>23137.041666666668</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1641</v>
+      </c>
+      <c r="B293">
+        <v>23185.579166666666</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>1642</v>
+      </c>
+      <c r="B294">
+        <v>23233.962500000005</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>1643</v>
+      </c>
+      <c r="B295">
+        <v>23281.979166666672</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1644</v>
+      </c>
+      <c r="B296">
+        <v>23330.274999999998</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>1645</v>
+      </c>
+      <c r="B297">
+        <v>23378.470833333336</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>1646</v>
+      </c>
+      <c r="B298">
+        <v>23425.941666666666</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>1647</v>
+      </c>
+      <c r="B299">
+        <v>23474.445833333331</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>1648</v>
+      </c>
+      <c r="B300">
+        <v>23522.229166666668</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>1649</v>
+      </c>
+      <c r="B301">
+        <v>23570.358333333326</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1650</v>
+      </c>
+      <c r="B302">
+        <v>23618.625</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434D6B7A-16A3-4BE9-9BFB-F583C2A0A756}">
+  <dimension ref="A1:B299"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1350</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>26210.645833333339</v>
+        <v>25551.525399999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B3">
-        <v>26114.204166666666</v>
+        <v>-174307.56299999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B4">
-        <v>26012.891666666663</v>
+        <v>234364.45300000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B5">
-        <v>25910.645833333332</v>
+        <v>-23583.722699999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B6">
-        <v>25804.108333333334</v>
+        <v>-95838.570300000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B7">
-        <v>25695.483333333334</v>
+        <v>-182768.609</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B8">
-        <v>25585.537499999995</v>
+        <v>-43847.128900000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B9">
-        <v>25471.949999999997</v>
+        <v>-169549</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B10">
-        <v>25356.433333333334</v>
+        <v>-125907.55499999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B11">
-        <v>25238.770833333339</v>
+        <v>-119284.734</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B12">
-        <v>25119.625</v>
+        <v>34459.984400000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B13">
-        <v>24996.616666666658</v>
+        <v>202022.04699999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B14">
-        <v>24873.308333333331</v>
+        <v>125224.539</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B15">
-        <v>24746.366666666672</v>
+        <v>215853.29699999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B16">
-        <v>24615.820833333331</v>
+        <v>516895.75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B17">
-        <v>24482.445833333331</v>
+        <v>346224.53100000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B18">
-        <v>24344.025000000005</v>
+        <v>282766.53100000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B19">
-        <v>24201.212500000005</v>
+        <v>521656.18800000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B20">
-        <v>24054.804166666672</v>
+        <v>560310.93799999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B21">
-        <v>23900.470833333329</v>
+        <v>892531.93799999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B22">
-        <v>23740.320833333335</v>
+        <v>760465</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B23">
-        <v>23574.875</v>
+        <v>500790.34399999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B24">
-        <v>23403.279166666671</v>
+        <v>729488.18799999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B25">
-        <v>23225.849999999995</v>
+        <v>677180.125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B26">
-        <v>23044.266666666666</v>
+        <v>491058.18800000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B27">
-        <v>22857.050000000003</v>
+        <v>437131.59399999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B28">
-        <v>22670.162500000006</v>
+        <v>120548.82799999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B29">
-        <v>22482.229166666668</v>
+        <v>116750.29700000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B30">
-        <v>22297.945833333331</v>
+        <v>100303.406</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B31">
-        <v>22118.491666666669</v>
+        <v>-272943.81300000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B32">
-        <v>21948.291666666668</v>
+        <v>-259046.375</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B33">
-        <v>21788.112499999999</v>
+        <v>-446536.53100000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B34">
-        <v>21640.712500000001</v>
+        <v>-372116.84399999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B35">
-        <v>21505.875000000004</v>
+        <v>-230635.82800000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B36">
-        <v>21385.729166666672</v>
+        <v>-271274.84399999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B37">
-        <v>21279.05</v>
+        <v>-140604.516</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B38">
-        <v>21184.366666666672</v>
+        <v>-267877.81300000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B39">
-        <v>21102.412500000002</v>
+        <v>-223615.59400000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B40">
-        <v>21031.704166666666</v>
+        <v>-308916.43800000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B41">
-        <v>20969.704166666663</v>
+        <v>-280794.78100000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B42">
-        <v>20917.462499999998</v>
+        <v>-295722.53100000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B43">
-        <v>20871.616666666669</v>
+        <v>-342567.78100000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B44">
-        <v>20831.891666666666</v>
+        <v>-438133.125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B45">
-        <v>20797.575000000001</v>
+        <v>-541401</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B46">
-        <v>20767.566666666666</v>
+        <v>-374749.125</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B47">
-        <v>20741.624999999996</v>
+        <v>-85444.953099999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B48">
-        <v>20718.308333333334</v>
+        <v>163137.25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B49">
-        <v>20697.791666666668</v>
+        <v>272957.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B50">
-        <v>20679.174999999999</v>
+        <v>311645.34399999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B51">
-        <v>20661.695833333335</v>
+        <v>362614.90600000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B52">
-        <v>20645.516666666663</v>
+        <v>427653.25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B53">
-        <v>20629.654166666671</v>
+        <v>458872.06300000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B54">
-        <v>20613.779166666671</v>
+        <v>398939.40600000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B55">
-        <v>20598.054166666661</v>
+        <v>358922.71899999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B56">
-        <v>20581.625000000004</v>
+        <v>383235.125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B57">
-        <v>20564.841666666667</v>
+        <v>287912</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B58">
-        <v>20547.316666666669</v>
+        <v>228959.68799999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B59">
-        <v>20529.579166666666</v>
+        <v>196213.31299999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B60">
-        <v>20511.012499999997</v>
+        <v>109605.06299999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B61">
-        <v>20491.812500000004</v>
+        <v>163091.81299999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B62">
-        <v>20472.000000000004</v>
+        <v>202549.59400000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B63">
-        <v>20451.908333333329</v>
+        <v>191160.67199999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B64">
-        <v>20431.387500000001</v>
+        <v>251889.21900000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B65">
-        <v>20409.691666666666</v>
+        <v>224529.484</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B66">
-        <v>20387.766666666666</v>
+        <v>191492.90599999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B67">
-        <v>20365.020833333332</v>
+        <v>68316.5625</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B68">
-        <v>20341.949999999993</v>
+        <v>-51549.179700000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B69">
-        <v>20317.912499999999</v>
+        <v>-135180.90599999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B70">
-        <v>20293.224999999995</v>
+        <v>-302778.96899999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B71">
-        <v>20269.008333333335</v>
+        <v>-509739.28100000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B72">
-        <v>20244.308333333331</v>
+        <v>-706240.75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B73">
-        <v>20219.312499999996</v>
+        <v>-921644.75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B74">
-        <v>20194.120833333331</v>
+        <v>-831450</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B75">
-        <v>20169.083333333336</v>
+        <v>-673119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B76">
-        <v>20144.091666666671</v>
+        <v>-582270.875</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B77">
-        <v>20119.516666666663</v>
+        <v>-430313.71899999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B78">
-        <v>20095.045833333337</v>
+        <v>-373068.03100000002</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B79">
-        <v>20071.554166666665</v>
+        <v>-237230.71900000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B80">
-        <v>20049.016666666666</v>
+        <v>-93925.921900000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B81">
-        <v>20026.8125</v>
+        <v>3381.84375</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B82">
-        <v>20005.329166666666</v>
+        <v>91277.5625</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B83">
-        <v>19984.066666666669</v>
+        <v>311580.15600000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B84">
-        <v>19962.941666666666</v>
+        <v>432330.34399999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B85">
-        <v>19941.825000000001</v>
+        <v>566480.81299999997</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B86">
-        <v>19920.820833333335</v>
+        <v>633493.125</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B87">
-        <v>19899.766666666663</v>
+        <v>816473.56299999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B88">
-        <v>19878.666666666668</v>
+        <v>1097219.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B89">
-        <v>19857.108333333334</v>
+        <v>1201797.75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B90">
-        <v>19836.158333333336</v>
+        <v>1239678.1299999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B91">
-        <v>19815.670833333334</v>
+        <v>1035681.13</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B92">
-        <v>19795.058333333334</v>
+        <v>848020.125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B93">
-        <v>19774.608333333334</v>
+        <v>569918.875</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B94">
-        <v>19754.300000000003</v>
+        <v>394671.06300000002</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B95">
-        <v>19733.749999999996</v>
+        <v>287688.06300000002</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B96">
-        <v>19712.958333333339</v>
+        <v>181895.984</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B97">
-        <v>19692.612499999996</v>
+        <v>73379.0625</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B98">
-        <v>19672.191666666666</v>
+        <v>-90128.828099999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B99">
-        <v>19652.012500000001</v>
+        <v>-139121.375</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B100">
-        <v>19632.20416666667</v>
+        <v>-99915.398400000005</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B101">
-        <v>19612.354166666668</v>
+        <v>-70858.281300000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B102">
-        <v>19593.324999999997</v>
+        <v>-174368.81299999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B103">
-        <v>19574.941666666669</v>
+        <v>-290687.65600000002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B104">
-        <v>19556.720833333329</v>
+        <v>-349834.125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B105">
-        <v>19539.708333333332</v>
+        <v>-340550.375</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B106">
-        <v>19523.387500000001</v>
+        <v>-295461</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B107">
-        <v>19507.725000000002</v>
+        <v>-246484.56299999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B108">
-        <v>19492.466666666664</v>
+        <v>-200826.04699999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B109">
-        <v>19477.400000000001</v>
+        <v>24286.337899999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B110">
-        <v>19462.604166666664</v>
+        <v>109369.344</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B111">
-        <v>19447.895833333332</v>
+        <v>199874.95300000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B112">
-        <v>19433.112499999999</v>
+        <v>190148.25</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B113">
-        <v>19418.179166666665</v>
+        <v>171631.65599999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B114">
-        <v>19403.295833333334</v>
+        <v>326280.53100000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B115">
-        <v>19388.758333333331</v>
+        <v>335830.5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B116">
-        <v>19373.612499999996</v>
+        <v>420791.34399999998</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B117">
-        <v>19359.437499999996</v>
+        <v>383723.18800000002</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B118">
-        <v>19345.183333333342</v>
+        <v>241438.31299999999</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B119">
-        <v>19331.316666666666</v>
+        <v>126997.516</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B120">
-        <v>19318.241666666669</v>
+        <v>-10966.640600000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B121">
-        <v>19304.912499999999</v>
+        <v>-17870.671900000001</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B122">
-        <v>19292.208333333332</v>
+        <v>-4930.7304700000004</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B123">
-        <v>19279.633333333335</v>
+        <v>15054.8398</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B124">
-        <v>19267.650000000001</v>
+        <v>65280.304700000001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B125">
-        <v>19256.116666666665</v>
+        <v>225565.734</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B126">
-        <v>19245.412500000002</v>
+        <v>558260.625</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B127">
-        <v>19235.454166666666</v>
+        <v>761195.625</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B128">
-        <v>19226.541666666668</v>
+        <v>1013610.63</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B129">
-        <v>19218.158333333329</v>
+        <v>1046330.88</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B130">
-        <v>19210.566666666669</v>
+        <v>1037809.81</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B131">
-        <v>19203.366666666665</v>
+        <v>1000129.88</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B132">
-        <v>19196.612499999996</v>
+        <v>792730.68799999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B133">
-        <v>19190.266666666666</v>
+        <v>450838.81300000002</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B134">
-        <v>19184.291666666664</v>
+        <v>139933.21900000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B135">
-        <v>19178.699999999997</v>
+        <v>-49783.085899999998</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B136">
-        <v>19173.583333333332</v>
+        <v>104123.156</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B137">
-        <v>19169.179166666669</v>
+        <v>455017.68800000002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B138">
-        <v>19165.637500000001</v>
+        <v>561324.43799999997</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B139">
-        <v>19161.987499999999</v>
+        <v>572640.18799999997</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B140">
-        <v>19158.916666666668</v>
+        <v>325253.90600000002</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B141">
-        <v>19156.512500000001</v>
+        <v>108925.875</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B142">
-        <v>19154.112499999999</v>
+        <v>35715.328099999999</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B143">
-        <v>19152.233333333334</v>
+        <v>8708.4218799999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B144">
-        <v>19150.283333333333</v>
+        <v>55403.375</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B145">
-        <v>19148.283333333333</v>
+        <v>-64397.609400000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B146">
-        <v>19146.733333333334</v>
+        <v>-351083.56300000002</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B147">
-        <v>19145.441666666669</v>
+        <v>-516386.125</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B148">
-        <v>19144.883333333335</v>
+        <v>-486597.43800000002</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B149">
-        <v>19144.520833333332</v>
+        <v>-309231.09399999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B150">
-        <v>19145.391666666666</v>
+        <v>-247706.5</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B151">
-        <v>19146.520833333336</v>
+        <v>-367150.31300000002</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B152">
-        <v>19147.637500000001</v>
+        <v>-639448.31299999997</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B153">
-        <v>19148.899999999998</v>
+        <v>-705822.625</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B154">
-        <v>19150.741666666665</v>
+        <v>-653738.25</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B155">
-        <v>19152.679166666665</v>
+        <v>-568904.93799999997</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B156">
-        <v>19154.491666666661</v>
+        <v>-423939.09399999998</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B157">
-        <v>19156.625000000004</v>
+        <v>-381395.71899999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B158">
-        <v>19159.020833333332</v>
+        <v>-302380.93800000002</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B159">
-        <v>19162.079166666666</v>
+        <v>-252920.07800000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B160">
-        <v>19165.654166666664</v>
+        <v>-283034.40600000002</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B161">
-        <v>19169.862499999996</v>
+        <v>-369185.40600000002</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B162">
-        <v>19175.020833333332</v>
+        <v>-446232</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B163">
-        <v>19180.404166666671</v>
+        <v>-531666.875</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B164">
-        <v>19185.624999999996</v>
+        <v>-605919.375</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B165">
-        <v>19192.104166666668</v>
+        <v>-622510.06299999997</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B166">
-        <v>19198.300000000003</v>
+        <v>-573036.875</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B167">
-        <v>19205.270833333332</v>
+        <v>-628307.375</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B168">
-        <v>19212.55</v>
+        <v>-725620.625</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B169">
-        <v>19220.712500000001</v>
+        <v>-747839.81299999997</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B170">
-        <v>19229.220833333333</v>
+        <v>-721529.125</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B171">
-        <v>19238.775000000001</v>
+        <v>-592513.125</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B172">
-        <v>19248.441666666662</v>
+        <v>-584966.375</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B173">
-        <v>19258.758333333335</v>
+        <v>-623798.25</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B174">
-        <v>19269.508333333335</v>
+        <v>-668466.81299999997</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B175">
-        <v>19280.470833333333</v>
+        <v>-657845.75</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B176">
-        <v>19291.229166666668</v>
+        <v>-600125.75</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B177">
-        <v>19302.395833333336</v>
+        <v>-520801.875</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B178">
-        <v>19313.516666666666</v>
+        <v>-487067.65600000002</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B179">
-        <v>19324.758333333335</v>
+        <v>-453774.15600000002</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B180">
-        <v>19336.279166666664</v>
+        <v>-316458.81300000002</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B181">
-        <v>19348.733333333334</v>
+        <v>-148183.25</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B182">
-        <v>19361.870833333331</v>
+        <v>80938.640599999999</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B183">
-        <v>19375.762500000001</v>
+        <v>276815.5</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B184">
-        <v>19390.370833333331</v>
+        <v>367549.31300000002</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B185">
-        <v>19405.000000000004</v>
+        <v>399119.93800000002</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B186">
-        <v>19420.341666666667</v>
+        <v>340346.81300000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B187">
-        <v>19436.020833333339</v>
+        <v>240526.46900000001</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B188">
-        <v>19452.120833333334</v>
+        <v>248475.57800000001</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B189">
-        <v>19468.808333333334</v>
+        <v>138453.68799999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B190">
-        <v>19486.362500000007</v>
+        <v>50536.570299999999</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B191">
-        <v>19504.516666666666</v>
+        <v>-39701.441400000003</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B192">
-        <v>19522.679166666669</v>
+        <v>-103406.82799999999</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B193">
-        <v>19541.683333333334</v>
+        <v>-226965</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B194">
-        <v>19561.366666666665</v>
+        <v>-404469.625</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B195">
-        <v>19581.079166666666</v>
+        <v>-516653.71899999998</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B196">
-        <v>19601.037500000002</v>
+        <v>-682070.31299999997</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B197">
-        <v>19621.495833333331</v>
+        <v>-654695.625</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B198">
-        <v>19641.304166666665</v>
+        <v>-617221</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B199">
-        <v>19660.991666666669</v>
+        <v>-475384.53100000002</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B200">
-        <v>19680.850000000002</v>
+        <v>-300774.09399999998</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B201">
-        <v>19700.937500000004</v>
+        <v>-133407.53099999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B202">
-        <v>19721.829166666666</v>
+        <v>167677.984</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B203">
-        <v>19743.633333333328</v>
+        <v>384405.59399999998</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B204">
-        <v>19766.2</v>
+        <v>436164.81300000002</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B205">
-        <v>19789.879166666669</v>
+        <v>190524.79699999999</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B206">
-        <v>19813.912500000002</v>
+        <v>-46353.117200000001</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B207">
-        <v>19838.158333333333</v>
+        <v>22423.210899999998</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B208">
-        <v>19863.112499999999</v>
+        <v>253502.78099999999</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B209">
-        <v>19888.204166666666</v>
+        <v>419797.28100000002</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B210">
-        <v>19914.070833333335</v>
+        <v>532482.875</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B211">
-        <v>19939.483333333334</v>
+        <v>600414.5</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B212">
-        <v>19965.637500000001</v>
+        <v>495198.96899999998</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B213">
-        <v>19992.045833333334</v>
+        <v>276092.93800000002</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B214">
-        <v>20018.341666666671</v>
+        <v>-37700.960899999998</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B215">
-        <v>20044.612499999999</v>
+        <v>-358163.84399999998</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B216">
-        <v>20070.504166666669</v>
+        <v>-493755.625</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B217">
-        <v>20096.154166666664</v>
+        <v>-591241.06299999997</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B218">
-        <v>20122.650000000001</v>
+        <v>-660974.18799999997</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B219">
-        <v>20149.641666666666</v>
+        <v>-413915.06300000002</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B220">
-        <v>20178.033333333333</v>
+        <v>-50990.492200000001</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B221">
-        <v>20206.641666666666</v>
+        <v>354334.31300000002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B222">
-        <v>20237.237499999999</v>
+        <v>701083.81299999997</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B223">
-        <v>20268.583333333332</v>
+        <v>901629.81299999997</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B224">
-        <v>20300.987499999999</v>
+        <v>1011779.13</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B225">
-        <v>20334.408333333333</v>
+        <v>998849.81299999997</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B226">
-        <v>20368.445833333331</v>
+        <v>774157.625</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B227">
-        <v>20402.291666666668</v>
+        <v>397323.81300000002</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B228">
-        <v>20436.187499999996</v>
+        <v>5228.1445299999996</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B229">
-        <v>20469.520833333332</v>
+        <v>-292385.15600000002</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B230">
-        <v>20503.091666666667</v>
+        <v>-479627.75</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B231">
-        <v>20536.174999999999</v>
+        <v>-523916.18800000002</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B232">
-        <v>20568.737499999999</v>
+        <v>-290113.28100000002</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B233">
-        <v>20601.195833333335</v>
+        <v>31015.851600000002</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B234">
-        <v>20634.129166666662</v>
+        <v>389308.34399999998</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B235">
-        <v>20667.2</v>
+        <v>532393.43799999997</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B236">
-        <v>20699.933333333331</v>
+        <v>434261.56300000002</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B237">
-        <v>20732.816666666666</v>
+        <v>318721.34399999998</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B238">
-        <v>20766.941666666669</v>
+        <v>204703.25</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B239">
-        <v>20801.320833333335</v>
+        <v>130204.94500000001</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B240">
-        <v>20836.533333333333</v>
+        <v>83986.484400000001</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B241">
-        <v>20872.733333333334</v>
+        <v>48244.8125</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B242">
-        <v>20909.604166666668</v>
+        <v>77479.109400000001</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B243">
-        <v>20947.387500000001</v>
+        <v>7078.7851600000004</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B244">
-        <v>20986.04583333333</v>
+        <v>-145643.81299999999</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B245">
-        <v>21025.591666666671</v>
+        <v>-327752</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B246">
-        <v>21065.316666666669</v>
+        <v>-522371.03100000002</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B247">
-        <v>21105.629166666669</v>
+        <v>-565539.25</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B248">
-        <v>21145.991666666661</v>
+        <v>-428265.09399999998</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B249">
-        <v>21186.512500000001</v>
+        <v>-389551.03100000002</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B250">
-        <v>21226.758333333335</v>
+        <v>-262184.31300000002</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B251">
-        <v>21267.541666666668</v>
+        <v>-281093.31300000002</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B252">
-        <v>21307.991666666672</v>
+        <v>-453543.78100000002</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B253">
-        <v>21348.779166666667</v>
+        <v>-432884.93800000002</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B254">
-        <v>21389.483333333334</v>
+        <v>-436632.875</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B255">
-        <v>21431.070833333335</v>
+        <v>-464494.18800000002</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B256">
-        <v>21473.079166666659</v>
+        <v>-538128.125</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B257">
-        <v>21515.191666666666</v>
+        <v>-530252.56299999997</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B258">
-        <v>21558.274999999998</v>
+        <v>-463066.96899999998</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B259">
-        <v>21601.441666666666</v>
+        <v>-265608.65600000002</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B260">
-        <v>21645.570833333335</v>
+        <v>-178882.391</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B261">
-        <v>21689.649999999998</v>
+        <v>-96614.875</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B262">
-        <v>21734.333333333332</v>
+        <v>-17544.169900000001</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B263">
-        <v>21779.17083333333</v>
+        <v>-34283.960899999998</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B264">
-        <v>21824.195833333335</v>
+        <v>99673.585900000005</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B265">
-        <v>21868.874999999996</v>
+        <v>102577.95299999999</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B266">
-        <v>21913.595833333336</v>
+        <v>141584.984</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B267">
-        <v>21958.104166666672</v>
+        <v>9820.5595699999994</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B268">
-        <v>22002.274999999994</v>
+        <v>-53904.835899999998</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B269">
-        <v>22046.608333333334</v>
+        <v>-25299.664100000002</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B270">
-        <v>22090.662500000002</v>
+        <v>-51894.257799999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B271">
-        <v>22135.104166666668</v>
+        <v>115793.29700000001</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B272">
-        <v>22179.879166666662</v>
+        <v>172141.32800000001</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B273">
-        <v>22225.008333333335</v>
+        <v>452251.25</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B274">
-        <v>22271.366666666665</v>
+        <v>606009.25</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B275">
-        <v>22318.1875</v>
+        <v>597713.06299999997</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B276">
-        <v>22365.316666666666</v>
+        <v>699335.93799999997</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B277">
-        <v>22413.216666666664</v>
+        <v>630672.875</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B278">
-        <v>22460.975000000002</v>
+        <v>568958.18799999997</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B279">
-        <v>22509</v>
+        <v>463950.06300000002</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B280">
-        <v>22557.383333333331</v>
+        <v>291467.46899999998</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B281">
-        <v>22604.795833333337</v>
+        <v>214715.06299999999</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B282">
-        <v>22652.875</v>
+        <v>-22387.472699999998</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B283">
-        <v>22700.816666666662</v>
+        <v>-398812.31300000002</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B284">
-        <v>22748.604166666668</v>
+        <v>-709703.75</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B285">
-        <v>22796.570833333331</v>
+        <v>-856767.375</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B286">
-        <v>22844.916666666668</v>
+        <v>-799866.25</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B287">
-        <v>22893.295833333337</v>
+        <v>-570206.31299999997</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B288">
-        <v>22941.833333333339</v>
+        <v>-299708.90600000002</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B289">
-        <v>22990.550000000003</v>
+        <v>-36600.132799999999</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B290">
-        <v>23039.495833333334</v>
+        <v>213119.609</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B291">
-        <v>23088.383333333331</v>
+        <v>256367.93799999999</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B292">
-        <v>23137.041666666668</v>
+        <v>96518.75</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B293">
-        <v>23185.579166666666</v>
+        <v>-114752.5</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B294">
-        <v>23233.962500000005</v>
+        <v>-337631.46899999998</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B295">
-        <v>23281.979166666672</v>
+        <v>-536751.31299999997</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B296">
-        <v>23330.274999999998</v>
+        <v>-523977.06300000002</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B297">
-        <v>23378.470833333336</v>
+        <v>-402575.78100000002</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B298">
-        <v>23425.941666666666</v>
+        <v>-102149.969</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
+        <v>1648</v>
+      </c>
+      <c r="B299">
+        <v>379111.03100000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7692FC-0E19-42BC-A6AE-2FFF69077074}">
+  <dimension ref="A1:B299"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-7.9740776999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1352</v>
+      </c>
+      <c r="B3">
+        <v>1.05849791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1353</v>
+      </c>
+      <c r="B4">
+        <v>-23.4054222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1354</v>
+      </c>
+      <c r="B5">
+        <v>-54.673179599999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1355</v>
+      </c>
+      <c r="B6">
+        <v>-76.616699199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1356</v>
+      </c>
+      <c r="B7">
+        <v>-84.150466899999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1357</v>
+      </c>
+      <c r="B8">
+        <v>-82.929710400000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1358</v>
+      </c>
+      <c r="B9">
+        <v>-70.130706799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1359</v>
+      </c>
+      <c r="B10">
+        <v>-85.709419299999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1360</v>
+      </c>
+      <c r="B11">
+        <v>-90.488815299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1361</v>
+      </c>
+      <c r="B12">
+        <v>-87.629241899999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1362</v>
+      </c>
+      <c r="B13">
+        <v>-72.882347100000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1363</v>
+      </c>
+      <c r="B14">
+        <v>-54.8990936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1364</v>
+      </c>
+      <c r="B15">
+        <v>-67.926368699999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1365</v>
+      </c>
+      <c r="B16">
+        <v>-89.523811300000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1366</v>
+      </c>
+      <c r="B17">
+        <v>-93.027206399999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1367</v>
+      </c>
+      <c r="B18">
+        <v>-82.161788900000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1368</v>
+      </c>
+      <c r="B19">
+        <v>-88.861892699999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1369</v>
+      </c>
+      <c r="B20">
+        <v>-68.950027500000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1370</v>
+      </c>
+      <c r="B21">
+        <v>-50.737033799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1371</v>
+      </c>
+      <c r="B22">
+        <v>-15.9086952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1372</v>
+      </c>
+      <c r="B23">
+        <v>22.949178700000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1373</v>
+      </c>
+      <c r="B24">
+        <v>41.983589199999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1374</v>
+      </c>
+      <c r="B25">
+        <v>58.298465700000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1375</v>
+      </c>
+      <c r="B26">
+        <v>95.2566147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1376</v>
+      </c>
+      <c r="B27">
+        <v>116.078232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1377</v>
+      </c>
+      <c r="B28">
+        <v>127.508751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1378</v>
+      </c>
+      <c r="B29">
+        <v>100.786995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1379</v>
+      </c>
+      <c r="B30">
+        <v>77.744338999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1380</v>
+      </c>
+      <c r="B31">
+        <v>77.155952499999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1381</v>
+      </c>
+      <c r="B32">
+        <v>67.338188200000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1382</v>
+      </c>
+      <c r="B33">
+        <v>78.603889499999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1383</v>
+      </c>
+      <c r="B34">
+        <v>17.862567899999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1384</v>
+      </c>
+      <c r="B35">
+        <v>-8.3912248599999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1385</v>
+      </c>
+      <c r="B36">
+        <v>-45.563579599999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1386</v>
+      </c>
+      <c r="B37">
+        <v>-79.3848038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1387</v>
+      </c>
+      <c r="B38">
+        <v>-71.131805400000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1388</v>
+      </c>
+      <c r="B39">
+        <v>-89.3394318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1389</v>
+      </c>
+      <c r="B40">
+        <v>-79.179557799999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1390</v>
+      </c>
+      <c r="B41">
+        <v>-79.176666299999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1391</v>
+      </c>
+      <c r="B42">
+        <v>-65.353805500000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1392</v>
+      </c>
+      <c r="B43">
+        <v>-51.499328599999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1393</v>
+      </c>
+      <c r="B44">
+        <v>-44.469211600000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1394</v>
+      </c>
+      <c r="B45">
+        <v>-30.548019400000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1395</v>
+      </c>
+      <c r="B46">
+        <v>-24.4711018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1396</v>
+      </c>
+      <c r="B47">
+        <v>-11.2490234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1397</v>
+      </c>
+      <c r="B48">
+        <v>-6.9981899299999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1398</v>
+      </c>
+      <c r="B49">
+        <v>-8.1360273400000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1399</v>
+      </c>
+      <c r="B50">
+        <v>-25.499460200000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1400</v>
+      </c>
+      <c r="B51">
+        <v>-19.572650899999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1401</v>
+      </c>
+      <c r="B52">
+        <v>-24.608903900000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1402</v>
+      </c>
+      <c r="B53">
+        <v>-29.215141299999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1403</v>
+      </c>
+      <c r="B54">
+        <v>-9.5623397800000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1404</v>
+      </c>
+      <c r="B55">
+        <v>-10.558135999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1405</v>
+      </c>
+      <c r="B56">
+        <v>12.934287100000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1406</v>
+      </c>
+      <c r="B57">
+        <v>37.291473400000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1407</v>
+      </c>
+      <c r="B58">
+        <v>42.691482499999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1408</v>
+      </c>
+      <c r="B59">
+        <v>69.984375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1409</v>
+      </c>
+      <c r="B60">
+        <v>77.917694100000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1410</v>
+      </c>
+      <c r="B61">
+        <v>78.590835600000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1411</v>
+      </c>
+      <c r="B62">
+        <v>81.488418600000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1412</v>
+      </c>
+      <c r="B63">
+        <v>70.282508899999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1413</v>
+      </c>
+      <c r="B64">
+        <v>79.3282928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1414</v>
+      </c>
+      <c r="B65">
+        <v>95.110885600000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1415</v>
+      </c>
+      <c r="B66">
+        <v>109.644211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1416</v>
+      </c>
+      <c r="B67">
+        <v>125.32777400000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1417</v>
+      </c>
+      <c r="B68">
+        <v>124.60386699999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1418</v>
+      </c>
+      <c r="B69">
+        <v>119.664322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1419</v>
+      </c>
+      <c r="B70">
+        <v>116.207886</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1420</v>
+      </c>
+      <c r="B71">
+        <v>110.23465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1421</v>
+      </c>
+      <c r="B72">
+        <v>99.794212299999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1422</v>
+      </c>
+      <c r="B73">
+        <v>91.172470099999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1423</v>
+      </c>
+      <c r="B74">
+        <v>80.985824600000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1424</v>
+      </c>
+      <c r="B75">
+        <v>70.021636999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1425</v>
+      </c>
+      <c r="B76">
+        <v>78.585967999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1426</v>
+      </c>
+      <c r="B77">
+        <v>73.855148299999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1427</v>
+      </c>
+      <c r="B78">
+        <v>61.397590600000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1428</v>
+      </c>
+      <c r="B79">
+        <v>50.689788800000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1429</v>
+      </c>
+      <c r="B80">
+        <v>40.254005399999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1430</v>
+      </c>
+      <c r="B81">
+        <v>42.522522000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1431</v>
+      </c>
+      <c r="B82">
+        <v>46.564842200000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1432</v>
+      </c>
+      <c r="B83">
+        <v>23.265895799999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1433</v>
+      </c>
+      <c r="B84">
+        <v>20.1576424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1434</v>
+      </c>
+      <c r="B85">
+        <v>23.474498700000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1435</v>
+      </c>
+      <c r="B86">
+        <v>27.166091900000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1436</v>
+      </c>
+      <c r="B87">
+        <v>26.776454900000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1437</v>
+      </c>
+      <c r="B88">
+        <v>-2.1414737700000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1438</v>
+      </c>
+      <c r="B89">
+        <v>-5.76439857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1439</v>
+      </c>
+      <c r="B90">
+        <v>-13.599084899999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1440</v>
+      </c>
+      <c r="B91">
+        <v>-10.938783600000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1441</v>
+      </c>
+      <c r="B92">
+        <v>-6.9315228500000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1442</v>
+      </c>
+      <c r="B93">
+        <v>-22.268707299999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1443</v>
+      </c>
+      <c r="B94">
+        <v>-7.8841233300000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1444</v>
+      </c>
+      <c r="B95">
+        <v>4.7808117899999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1445</v>
+      </c>
+      <c r="B96">
+        <v>17.397157700000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1446</v>
+      </c>
+      <c r="B97">
+        <v>45.359756500000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1447</v>
+      </c>
+      <c r="B98">
+        <v>46.779525800000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1448</v>
+      </c>
+      <c r="B99">
+        <v>27.8198948</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1449</v>
+      </c>
+      <c r="B100">
+        <v>-2.3812685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1450</v>
+      </c>
+      <c r="B101">
+        <v>-46.497009300000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1451</v>
+      </c>
+      <c r="B102">
+        <v>-73.989265399999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1452</v>
+      </c>
+      <c r="B103">
+        <v>-86.494811999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1453</v>
+      </c>
+      <c r="B104">
+        <v>-98.481658899999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1454</v>
+      </c>
+      <c r="B105">
+        <v>-107.515564</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1455</v>
+      </c>
+      <c r="B106">
+        <v>-94.3258972</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1456</v>
+      </c>
+      <c r="B107">
+        <v>-85.522323599999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1457</v>
+      </c>
+      <c r="B108">
+        <v>-80.296966600000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1458</v>
+      </c>
+      <c r="B109">
+        <v>-78.641830400000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1459</v>
+      </c>
+      <c r="B110">
+        <v>-86.974487300000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1460</v>
+      </c>
+      <c r="B111">
+        <v>-77.987190200000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1461</v>
+      </c>
+      <c r="B112">
+        <v>-61.208091699999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1462</v>
+      </c>
+      <c r="B113">
+        <v>-55.690624200000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1463</v>
+      </c>
+      <c r="B114">
+        <v>-49.5588531</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1464</v>
+      </c>
+      <c r="B115">
+        <v>-53.336025200000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1465</v>
+      </c>
+      <c r="B116">
+        <v>-58.321865099999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1466</v>
+      </c>
+      <c r="B117">
+        <v>-64.704818700000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1467</v>
+      </c>
+      <c r="B118">
+        <v>-60.512134600000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1468</v>
+      </c>
+      <c r="B119">
+        <v>-43.669624300000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1469</v>
+      </c>
+      <c r="B120">
+        <v>-29.421875</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1470</v>
+      </c>
+      <c r="B121">
+        <v>-22.266931499999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1471</v>
+      </c>
+      <c r="B122">
+        <v>-35.647743200000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1472</v>
+      </c>
+      <c r="B123">
+        <v>-44.7737579</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1473</v>
+      </c>
+      <c r="B124">
+        <v>-58.747867599999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1474</v>
+      </c>
+      <c r="B125">
+        <v>-66.0388947</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1475</v>
+      </c>
+      <c r="B126">
+        <v>-81.661750799999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1476</v>
+      </c>
+      <c r="B127">
+        <v>-88.242103599999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1477</v>
+      </c>
+      <c r="B128">
+        <v>-82.6308899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1478</v>
+      </c>
+      <c r="B129">
+        <v>-62.782638499999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1479</v>
+      </c>
+      <c r="B130">
+        <v>-36.592910799999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1480</v>
+      </c>
+      <c r="B131">
+        <v>-23.115066500000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1481</v>
+      </c>
+      <c r="B132">
+        <v>-11.473055799999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1482</v>
+      </c>
+      <c r="B133">
+        <v>-5.0529632600000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1483</v>
+      </c>
+      <c r="B134">
+        <v>-1.1903581599999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1484</v>
+      </c>
+      <c r="B135">
+        <v>1.46775246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1485</v>
+      </c>
+      <c r="B136">
+        <v>-18.569561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1486</v>
+      </c>
+      <c r="B137">
+        <v>-46.4086304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1487</v>
+      </c>
+      <c r="B138">
+        <v>-71.115287800000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1488</v>
+      </c>
+      <c r="B139">
+        <v>-100.67158499999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1489</v>
+      </c>
+      <c r="B140">
+        <v>-96.031196600000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1490</v>
+      </c>
+      <c r="B141">
+        <v>-83.056823699999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1491</v>
+      </c>
+      <c r="B142">
+        <v>-84.4216385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1492</v>
+      </c>
+      <c r="B143">
+        <v>-89.139038099999993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1493</v>
+      </c>
+      <c r="B144">
+        <v>-81.911209099999994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1494</v>
+      </c>
+      <c r="B145">
+        <v>-56.297550200000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1495</v>
+      </c>
+      <c r="B146">
+        <v>-14.6441059</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1496</v>
+      </c>
+      <c r="B147">
+        <v>14.9357138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1497</v>
+      </c>
+      <c r="B148">
+        <v>3.2610912299999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1498</v>
+      </c>
+      <c r="B149">
+        <v>-4.8150472600000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1499</v>
+      </c>
+      <c r="B150">
+        <v>-32.9502411</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1500</v>
+      </c>
+      <c r="B151">
+        <v>-51.254013100000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1501</v>
+      </c>
+      <c r="B152">
+        <v>-56.087715099999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1502</v>
+      </c>
+      <c r="B153">
+        <v>-63.462799099999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1503</v>
+      </c>
+      <c r="B154">
+        <v>-49.467048599999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1504</v>
+      </c>
+      <c r="B155">
+        <v>-36.975040399999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1505</v>
+      </c>
+      <c r="B156">
+        <v>-22.368274700000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1506</v>
+      </c>
+      <c r="B157">
+        <v>-22.301635699999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1507</v>
+      </c>
+      <c r="B158">
+        <v>-33.9465103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1508</v>
+      </c>
+      <c r="B159">
+        <v>-36.445575699999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1509</v>
+      </c>
+      <c r="B160">
+        <v>-42.407157900000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1510</v>
+      </c>
+      <c r="B161">
+        <v>-32.459671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1511</v>
+      </c>
+      <c r="B162">
+        <v>-16.598022499999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1512</v>
+      </c>
+      <c r="B163">
+        <v>-8.2568712200000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1513</v>
+      </c>
+      <c r="B164">
+        <v>15.8490286</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1514</v>
+      </c>
+      <c r="B165">
+        <v>11.311322199999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1515</v>
+      </c>
+      <c r="B166">
+        <v>1.6162509899999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1516</v>
+      </c>
+      <c r="B167">
+        <v>-6.7483081800000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1517</v>
+      </c>
+      <c r="B168">
+        <v>-24.013708099999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1518</v>
+      </c>
+      <c r="B169">
+        <v>-28.218240699999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1519</v>
+      </c>
+      <c r="B170">
+        <v>-24.686372800000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1520</v>
+      </c>
+      <c r="B171">
+        <v>-37.143985700000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1521</v>
+      </c>
+      <c r="B172">
+        <v>-39.248550399999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1522</v>
+      </c>
+      <c r="B173">
+        <v>-38.311840099999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1523</v>
+      </c>
+      <c r="B174">
+        <v>-31.189403500000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1524</v>
+      </c>
+      <c r="B175">
+        <v>-10.440771099999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1525</v>
+      </c>
+      <c r="B176">
+        <v>26.557670600000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1526</v>
+      </c>
+      <c r="B177">
+        <v>56.295074499999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1527</v>
+      </c>
+      <c r="B178">
+        <v>75.654808000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1528</v>
+      </c>
+      <c r="B179">
+        <v>77.049568199999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1529</v>
+      </c>
+      <c r="B180">
+        <v>29.831747100000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>1530</v>
+      </c>
+      <c r="B181">
+        <v>6.4859342599999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1531</v>
+      </c>
+      <c r="B182">
+        <v>-16.450063700000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1532</v>
+      </c>
+      <c r="B183">
+        <v>-15.9018307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1533</v>
+      </c>
+      <c r="B184">
+        <v>-5.1669578600000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1534</v>
+      </c>
+      <c r="B185">
+        <v>-5.3269195600000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>1535</v>
+      </c>
+      <c r="B186">
+        <v>-1.5448331799999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1536</v>
+      </c>
+      <c r="B187">
+        <v>-5.8161058399999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1537</v>
+      </c>
+      <c r="B188">
+        <v>4.1353912399999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>1538</v>
+      </c>
+      <c r="B189">
+        <v>10.6152658</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1539</v>
+      </c>
+      <c r="B190">
+        <v>19.901351900000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>1540</v>
+      </c>
+      <c r="B191">
+        <v>29.0712318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1541</v>
+      </c>
+      <c r="B192">
+        <v>26.8298244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1542</v>
+      </c>
+      <c r="B193">
+        <v>42.863765700000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1543</v>
+      </c>
+      <c r="B194">
+        <v>58.889152500000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1544</v>
+      </c>
+      <c r="B195">
+        <v>68.497238199999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1545</v>
+      </c>
+      <c r="B196">
+        <v>60.398239099999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>1546</v>
+      </c>
+      <c r="B197">
+        <v>38.007049600000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>1547</v>
+      </c>
+      <c r="B198">
+        <v>26.372379299999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1548</v>
+      </c>
+      <c r="B199">
+        <v>11.162796</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1549</v>
+      </c>
+      <c r="B200">
+        <v>6.9637417800000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>1550</v>
+      </c>
+      <c r="B201">
+        <v>-1.0483129</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1551</v>
+      </c>
+      <c r="B202">
+        <v>-3.8472094499999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1552</v>
+      </c>
+      <c r="B203">
+        <v>4.4777989399999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>1553</v>
+      </c>
+      <c r="B204">
+        <v>14.429544399999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1554</v>
+      </c>
+      <c r="B205">
+        <v>22.805686999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1555</v>
+      </c>
+      <c r="B206">
+        <v>16.512603800000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1556</v>
+      </c>
+      <c r="B207">
+        <v>-0.46286344499999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1557</v>
+      </c>
+      <c r="B208">
+        <v>-4.5552845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1558</v>
+      </c>
+      <c r="B209">
+        <v>5.5253901499999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1559</v>
+      </c>
+      <c r="B210">
+        <v>28.825818999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1560</v>
+      </c>
+      <c r="B211">
+        <v>46.352645899999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1561</v>
+      </c>
+      <c r="B212">
+        <v>68.123580899999993</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1562</v>
+      </c>
+      <c r="B213">
+        <v>98.780708300000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1563</v>
+      </c>
+      <c r="B214">
+        <v>114.818138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1564</v>
+      </c>
+      <c r="B215">
+        <v>114.26209299999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1565</v>
+      </c>
+      <c r="B216">
+        <v>88.150703399999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1566</v>
+      </c>
+      <c r="B217">
+        <v>52.5127296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1567</v>
+      </c>
+      <c r="B218">
+        <v>21.244903600000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1568</v>
+      </c>
+      <c r="B219">
+        <v>-14.136635800000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1569</v>
+      </c>
+      <c r="B220">
+        <v>-36.871540099999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1570</v>
+      </c>
+      <c r="B221">
+        <v>-33.395252200000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1571</v>
+      </c>
+      <c r="B222">
+        <v>-13.2824879</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1572</v>
+      </c>
+      <c r="B223">
+        <v>9.1526384400000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1573</v>
+      </c>
+      <c r="B224">
+        <v>23.884719799999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>1574</v>
+      </c>
+      <c r="B225">
+        <v>44.794525100000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1575</v>
+      </c>
+      <c r="B226">
+        <v>66.283599899999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1576</v>
+      </c>
+      <c r="B227">
+        <v>91.045959499999995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1577</v>
+      </c>
+      <c r="B228">
+        <v>93.397155799999993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1578</v>
+      </c>
+      <c r="B229">
+        <v>67.296249399999994</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1579</v>
+      </c>
+      <c r="B230">
+        <v>51.289863599999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>1580</v>
+      </c>
+      <c r="B231">
+        <v>31.277822499999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1581</v>
+      </c>
+      <c r="B232">
+        <v>4.8315234199999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1582</v>
+      </c>
+      <c r="B233">
+        <v>-14.0815649</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1583</v>
+      </c>
+      <c r="B234">
+        <v>-26.181209599999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1584</v>
+      </c>
+      <c r="B235">
+        <v>-20.2668304</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1585</v>
+      </c>
+      <c r="B236">
+        <v>15.0457392</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1586</v>
+      </c>
+      <c r="B237">
+        <v>49.232841499999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1587</v>
+      </c>
+      <c r="B238">
+        <v>68.081558200000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1588</v>
+      </c>
+      <c r="B239">
+        <v>85.939407299999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1589</v>
+      </c>
+      <c r="B240">
+        <v>73.497596700000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1590</v>
+      </c>
+      <c r="B241">
+        <v>64.370941200000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1591</v>
+      </c>
+      <c r="B242">
+        <v>60.957931500000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1592</v>
+      </c>
+      <c r="B243">
+        <v>26.0952129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1593</v>
+      </c>
+      <c r="B244">
+        <v>-12.7200813</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1594</v>
+      </c>
+      <c r="B245">
+        <v>-41.615547200000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1595</v>
+      </c>
+      <c r="B246">
+        <v>-55.451568600000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1596</v>
+      </c>
+      <c r="B247">
+        <v>-24.243387200000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1597</v>
+      </c>
+      <c r="B248">
+        <v>-0.50749063500000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1598</v>
+      </c>
+      <c r="B249">
+        <v>18.541299800000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1599</v>
+      </c>
+      <c r="B250">
+        <v>27.129552799999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1600</v>
+      </c>
+      <c r="B251">
+        <v>13.4374418</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1601</v>
+      </c>
+      <c r="B252">
+        <v>0.39882564500000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1602</v>
+      </c>
+      <c r="B253">
+        <v>-4.9393701600000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>1603</v>
+      </c>
+      <c r="B254">
+        <v>4.3865251499999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1604</v>
+      </c>
+      <c r="B255">
+        <v>30.1709137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>1605</v>
+      </c>
+      <c r="B256">
+        <v>55.808555599999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1606</v>
+      </c>
+      <c r="B257">
+        <v>49.4750595</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1607</v>
+      </c>
+      <c r="B258">
+        <v>47.409877799999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>1608</v>
+      </c>
+      <c r="B259">
+        <v>20.378696399999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1609</v>
+      </c>
+      <c r="B260">
+        <v>7.2036361700000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>1610</v>
+      </c>
+      <c r="B261">
+        <v>2.89091444</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>1611</v>
+      </c>
+      <c r="B262">
+        <v>-3.72378206</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1612</v>
+      </c>
+      <c r="B263">
+        <v>11.5381508</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1613</v>
+      </c>
+      <c r="B264">
+        <v>8.3234872800000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>1614</v>
+      </c>
+      <c r="B265">
+        <v>-9.9641895300000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1615</v>
+      </c>
+      <c r="B266">
+        <v>-32.234092699999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>1616</v>
+      </c>
+      <c r="B267">
+        <v>-52.256076800000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>1617</v>
+      </c>
+      <c r="B268">
+        <v>-64.836273199999994</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>1618</v>
+      </c>
+      <c r="B269">
+        <v>-81.052932699999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>1619</v>
+      </c>
+      <c r="B270">
+        <v>-80.682708700000006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>1620</v>
+      </c>
+      <c r="B271">
+        <v>-63.424812299999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>1621</v>
+      </c>
+      <c r="B272">
+        <v>-27.478698699999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>1622</v>
+      </c>
+      <c r="B273">
+        <v>3.8609161400000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1623</v>
+      </c>
+      <c r="B274">
+        <v>11.249856899999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1624</v>
+      </c>
+      <c r="B275">
+        <v>34.282371500000004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>1625</v>
+      </c>
+      <c r="B276">
+        <v>62.855213200000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>1626</v>
+      </c>
+      <c r="B277">
+        <v>78.994926500000005</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>1627</v>
+      </c>
+      <c r="B278">
+        <v>85.787780799999993</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>1628</v>
+      </c>
+      <c r="B279">
+        <v>73.064804100000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>1629</v>
+      </c>
+      <c r="B280">
+        <v>53.376052899999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>1630</v>
+      </c>
+      <c r="B281">
+        <v>45.928516399999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1631</v>
+      </c>
+      <c r="B282">
+        <v>28.158063899999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>1632</v>
+      </c>
+      <c r="B283">
+        <v>10.6847954</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>1633</v>
+      </c>
+      <c r="B284">
+        <v>-10.679428100000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>1634</v>
+      </c>
+      <c r="B285">
+        <v>-33.5182304</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>1635</v>
+      </c>
+      <c r="B286">
+        <v>-56.994914999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>1636</v>
+      </c>
+      <c r="B287">
+        <v>-76.468353300000004</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>1637</v>
+      </c>
+      <c r="B288">
+        <v>-82.953063999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>1638</v>
+      </c>
+      <c r="B289">
+        <v>-89.250442500000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1639</v>
+      </c>
+      <c r="B290">
+        <v>-70.271888700000005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1640</v>
+      </c>
+      <c r="B291">
+        <v>-53.175422699999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1641</v>
+      </c>
+      <c r="B292">
+        <v>-41.8091431</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1642</v>
+      </c>
+      <c r="B293">
+        <v>-43.867050200000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>1643</v>
+      </c>
+      <c r="B294">
+        <v>-43.143077900000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>1644</v>
+      </c>
+      <c r="B295">
+        <v>-37.784378099999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1645</v>
+      </c>
+      <c r="B296">
+        <v>-42.294589999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>1646</v>
+      </c>
+      <c r="B297">
+        <v>-37.292121899999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
         <v>1647</v>
       </c>
+      <c r="B298">
+        <v>-48.597183200000003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>1648</v>
+      </c>
       <c r="B299">
-        <v>23474.445833333331</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>1648</v>
-      </c>
-      <c r="B300">
-        <v>23522.229166666668</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>1649</v>
-      </c>
-      <c r="B301">
-        <v>23570.358333333326</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <v>1650</v>
-      </c>
-      <c r="B302">
-        <v>23618.625</v>
+        <v>-47.9265823</v>
       </c>
     </row>
   </sheetData>
